--- a/ListasDatos/Flores Ovalle Victor_2021.xlsx
+++ b/ListasDatos/Flores Ovalle Victor_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="480">
   <si>
     <t>NC</t>
   </si>
@@ -332,6 +332,9 @@
     <t>itzelcast2020@gmail.com</t>
   </si>
   <si>
+    <t>shadaijuarez@gmail.com</t>
+  </si>
+  <si>
     <t>jefe86748@gmail.com</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
     <t>ir673820@gmail.com</t>
   </si>
   <si>
+    <t>susanaromerozac@outlook.com</t>
+  </si>
+  <si>
     <t>alejandrasanchezhuerta1@gmail.com</t>
   </si>
   <si>
@@ -419,6 +425,9 @@
     <t>2722974524</t>
   </si>
   <si>
+    <t>2722078578</t>
+  </si>
+  <si>
     <t>2721058065</t>
   </si>
   <si>
@@ -446,6 +455,9 @@
     <t>2722361219</t>
   </si>
   <si>
+    <t>2721941069</t>
+  </si>
+  <si>
     <t>2722057137</t>
   </si>
   <si>
@@ -491,7 +503,7 @@
     <t>2727247557</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722433108</t>
@@ -518,7 +530,7 @@
     <t>ARIANA CRUZ DURÁN</t>
   </si>
   <si>
-    <t>JESÚS ESTEVEZ ALCÁNTARA ESTEVEZ MORENO</t>
+    <t>JESÚS ESTEVEZ ALCANTARA</t>
   </si>
   <si>
     <t>VERÓNICA ESPERÓN MORA</t>
@@ -542,6 +554,9 @@
     <t>BERTHA CASTILLO SANCHEZ</t>
   </si>
   <si>
+    <t>MARÍA GUADALUPE LILY JUAREZ TLATELPA</t>
+  </si>
+  <si>
     <t>OMAR DE LA LUZ GARCIA</t>
   </si>
   <si>
@@ -620,6 +635,9 @@
     <t>Berthacastillo3702@gmail.com</t>
   </si>
   <si>
+    <t>guadalupejuarez1525@gmail.com</t>
+  </si>
+  <si>
     <t>El13333@@mail.com</t>
   </si>
   <si>
@@ -671,6 +689,9 @@
     <t>2721922184</t>
   </si>
   <si>
+    <t>2722602078</t>
+  </si>
+  <si>
     <t>2722834883</t>
   </si>
   <si>
@@ -1025,6 +1046,9 @@
     <t>ceciliasuarez128@gmail.com</t>
   </si>
   <si>
+    <t>laishastefanytzanahuaguevara@gmail.com</t>
+  </si>
+  <si>
     <t>yadiratexcahua@gmail.com</t>
   </si>
   <si>
@@ -1124,6 +1148,9 @@
     <t>2722362905</t>
   </si>
   <si>
+    <t>2722456950</t>
+  </si>
+  <si>
     <t>2722257040</t>
   </si>
   <si>
@@ -1202,6 +1229,9 @@
     <t>MARIA CRISTINA MARROQUIN CORONA</t>
   </si>
   <si>
+    <t>SANDRA DOMINGUEZ RIOS</t>
+  </si>
+  <si>
     <t>CRUZ FLORES JIMENEZ</t>
   </si>
   <si>
@@ -1226,6 +1256,9 @@
     <t>JAVIER MANUEL MANZANET HERNÁNDEZ</t>
   </si>
   <si>
+    <t>BEATRIZ MARTÍNEZ BERNAL</t>
+  </si>
+  <si>
     <t>ROGELIO MARQUEZ HERNANDEZ</t>
   </si>
   <si>
@@ -1259,6 +1292,9 @@
     <t>JOSÉ ANTONIO SUÁREZ LÓPEZ</t>
   </si>
   <si>
+    <t>ELIZABETH GUEVARA MOTA</t>
+  </si>
+  <si>
     <t>MARÍA VICTORIA GUADALUPE CABRERA BÁEZ</t>
   </si>
   <si>
@@ -1286,6 +1322,9 @@
     <t>cristinacorona144@gmail.com</t>
   </si>
   <si>
+    <t>alexxadomm03@gmail.com</t>
+  </si>
+  <si>
     <t>agl.1904.07@gmail.com</t>
   </si>
   <si>
@@ -1304,6 +1343,9 @@
     <t>huevin749@gmail.com</t>
   </si>
   <si>
+    <t>bottia082@gmail.com</t>
+  </si>
+  <si>
     <t>jaret9564@gmail.com</t>
   </si>
   <si>
@@ -1325,6 +1367,9 @@
     <t>antiojsmith14@gmail.com</t>
   </si>
   <si>
+    <t>guevaraelizabeth488@gmail.com</t>
+  </si>
+  <si>
     <t>baez94588@gmail.com</t>
   </si>
   <si>
@@ -1346,6 +1391,9 @@
     <t>2721206374</t>
   </si>
   <si>
+    <t>2722018429</t>
+  </si>
+  <si>
     <t>2721287650</t>
   </si>
   <si>
@@ -1370,6 +1418,9 @@
     <t>2721082864</t>
   </si>
   <si>
+    <t>2721525672</t>
+  </si>
+  <si>
     <t>2711012004</t>
   </si>
   <si>
@@ -1395,6 +1446,9 @@
   </si>
   <si>
     <t>2721016875</t>
+  </si>
+  <si>
+    <t>2721895648</t>
   </si>
   <si>
     <t>2721948449</t>
@@ -1822,19 +1876,19 @@
         <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1854,13 +1908,13 @@
         <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1880,19 +1934,19 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1912,19 +1966,19 @@
         <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1944,19 +1998,19 @@
         <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1976,19 +2030,19 @@
         <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2008,19 +2062,19 @@
         <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2040,19 +2094,19 @@
         <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2072,19 +2126,19 @@
         <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2104,19 +2158,19 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2136,16 +2190,16 @@
         <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I12" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2165,19 +2219,19 @@
         <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2197,13 +2251,13 @@
         <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J14" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2223,19 +2277,19 @@
         <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J15" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2251,6 +2305,21 @@
       <c r="D16" t="s">
         <v>74</v>
       </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
@@ -2266,19 +2335,19 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J17" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2295,22 +2364,22 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2327,19 +2396,19 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2356,22 +2425,22 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2388,22 +2457,22 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2420,22 +2489,22 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2452,19 +2521,19 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2481,19 +2550,19 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2510,22 +2579,22 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2541,6 +2610,12 @@
       <c r="D26" t="s">
         <v>84</v>
       </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -2556,19 +2631,19 @@
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2585,19 +2660,19 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2614,16 +2689,16 @@
         <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2640,22 +2715,22 @@
         <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2672,19 +2747,19 @@
         <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2701,22 +2776,22 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2778,31 +2853,31 @@
         <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I2" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="J2" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2810,31 +2885,31 @@
         <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I3" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="J3" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2842,28 +2917,28 @@
         <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H4" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="I4" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2877,25 +2952,25 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2903,25 +2978,25 @@
         <v>19330051920271</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2929,28 +3004,28 @@
         <v>19330051920268</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2958,28 +3033,28 @@
         <v>19330051920274</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H8" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="J8" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2990,28 +3065,28 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I9" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="J9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3019,19 +3094,28 @@
         <v>18330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>348</v>
+        <v>356</v>
+      </c>
+      <c r="H10" t="s">
+        <v>404</v>
+      </c>
+      <c r="I10" t="s">
+        <v>435</v>
+      </c>
+      <c r="J10" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3042,28 +3126,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H11" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="J11" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3071,28 +3155,28 @@
         <v>19330051920278</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H12" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="I12" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="J12" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3103,28 +3187,28 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G13" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="I13" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="J13" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3135,28 +3219,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H14" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="I14" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="J14" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3167,28 +3251,28 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H15" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="I15" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="J15" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3196,31 +3280,31 @@
         <v>19330051920447</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G16" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H16" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="I16" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="J16" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3228,31 +3312,31 @@
         <v>19330051920284</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E17" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F17" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G17" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H17" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="I17" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="J17" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3260,28 +3344,28 @@
         <v>19330051920286</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G18" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H18" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="J18" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3292,16 +3376,25 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F19" t="s">
-        <v>357</v>
+        <v>365</v>
+      </c>
+      <c r="H19" t="s">
+        <v>413</v>
+      </c>
+      <c r="I19" t="s">
+        <v>442</v>
+      </c>
+      <c r="J19" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3309,28 +3402,28 @@
         <v>19330051920287</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F20" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H20" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="I20" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="J20" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3341,28 +3434,28 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F21" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G21" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H21" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="I21" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="J21" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3370,31 +3463,31 @@
         <v>19330051920343</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F22" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G22" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H22" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="I22" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="J22" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3402,28 +3495,28 @@
         <v>19330051920292</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G23" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="H23" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="J23" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3437,25 +3530,25 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G24" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H24" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="I24" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="J24" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3463,28 +3556,28 @@
         <v>19330051920294</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F25" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H25" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="I25" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="J25" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3495,28 +3588,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G26" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H26" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="I26" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="J26" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3527,28 +3620,28 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D27" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E27" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F27" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H27" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="I27" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="J27" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3556,31 +3649,31 @@
         <v>19330051920297</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G28" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H28" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="I28" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="J28" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3588,31 +3681,31 @@
         <v>19330051920298</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G29" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H29" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="I29" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="J29" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3620,31 +3713,31 @@
         <v>19330051920299</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F30" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G30" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H30" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="I30" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="J30" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3652,13 +3745,28 @@
         <v>19330051920301</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="E31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" t="s">
+        <v>377</v>
+      </c>
+      <c r="H31" t="s">
+        <v>425</v>
+      </c>
+      <c r="I31" t="s">
+        <v>450</v>
+      </c>
+      <c r="J31" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3666,28 +3774,28 @@
         <v>18330051920346</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F32" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H32" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I32" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="J32" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3695,31 +3803,31 @@
         <v>19330051920443</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G33" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H33" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="I33" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="J33" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3730,22 +3838,25 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E34" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F34" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>346</v>
       </c>
       <c r="J34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3753,28 +3864,28 @@
         <v>19330051920305</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E35" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F35" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H35" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="I35" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="J35" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
